--- a/data/CMS.xlsx
+++ b/data/CMS.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>CMS</t>
@@ -21985,7 +21985,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF32B87-0276-EF4E-963C-ED48B34C3BF9}">
-  <dimension ref="A1:AO60"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -22034,6 +22034,7 @@
     <col min="39" max="39" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="16.28515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22200,6 +22201,9 @@
       <c r="AO11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AP11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
@@ -22322,6 +22326,9 @@
       <c r="AO12" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP12" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
@@ -22444,6 +22451,9 @@
       <c r="AO13" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP13" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
@@ -22566,6 +22576,9 @@
       <c r="AO14" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP14" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
@@ -22688,6 +22701,9 @@
       <c r="AO15" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP15" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
@@ -22810,6 +22826,9 @@
       <c r="AO16" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP16" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
@@ -22932,6 +22951,9 @@
       <c r="AO17" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP17" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
@@ -23054,6 +23076,9 @@
       <c r="AO18" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP18" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
@@ -23176,6 +23201,9 @@
       <c r="AO19" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP19" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
@@ -23298,6 +23326,9 @@
       <c r="AO20" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP20" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
@@ -23420,6 +23451,9 @@
       <c r="AO21" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP21" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
@@ -23542,6 +23576,9 @@
       <c r="AO22" s="21" t="n">
         <v>-6.7130196036E10</v>
       </c>
+      <c r="AP22" s="21" t="n">
+        <v>-1.8953239888E10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
@@ -23664,6 +23701,9 @@
       <c r="AO23" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP23" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
@@ -23786,6 +23826,9 @@
       <c r="AO24" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP24" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
@@ -23908,6 +23951,9 @@
       <c r="AO25" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP25" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
@@ -24030,6 +24076,9 @@
       <c r="AO26" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP26" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
@@ -24152,6 +24201,9 @@
       <c r="AO27" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP27" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="22" t="s">
@@ -24274,6 +24326,9 @@
       <c r="AO28" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP28" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="22" t="s">
@@ -24396,6 +24451,9 @@
       <c r="AO29" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP29" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
@@ -24518,6 +24576,9 @@
       <c r="AO30" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP30" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="22" t="s">
@@ -24640,6 +24701,9 @@
       <c r="AO31" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP31" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="22" t="s">
@@ -24762,6 +24826,9 @@
       <c r="AO32" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP32" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
@@ -24884,6 +24951,9 @@
       <c r="AO33" s="21" t="n">
         <v>-4.73279204E8</v>
       </c>
+      <c r="AP33" s="21" t="n">
+        <v>1.280190924E9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
@@ -25006,6 +25076,9 @@
       <c r="AO34" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP34" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
@@ -25128,6 +25201,9 @@
       <c r="AO35" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP35" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="22" t="s">
@@ -25250,6 +25326,9 @@
       <c r="AO36" s="21" t="n">
         <v>-3.852747E8</v>
       </c>
+      <c r="AP36" s="21" t="n">
+        <v>-1.92E9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="s">
@@ -25372,6 +25451,9 @@
       <c r="AO37" s="21" t="n">
         <v>-5.7E8</v>
       </c>
+      <c r="AP37" s="21" t="n">
+        <v>1.2906E10</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="22" t="s">
@@ -25494,6 +25576,9 @@
       <c r="AO38" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP38" s="21" t="n">
+        <v>-9.706E9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="22" t="s">
@@ -25616,6 +25701,9 @@
       <c r="AO39" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP39" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="22" t="s">
@@ -25738,6 +25826,9 @@
       <c r="AO40" s="21" t="n">
         <v>4.81995496E8</v>
       </c>
+      <c r="AP40" s="21" t="n">
+        <v>190924.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
@@ -25860,6 +25951,9 @@
       <c r="AO41" s="21" t="n">
         <v>8.5468499555E10</v>
       </c>
+      <c r="AP41" s="21" t="n">
+        <v>4.50938005E9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="22" t="s">
@@ -25982,6 +26076,9 @@
       <c r="AO42" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP42" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="22" t="s">
@@ -26104,6 +26201,9 @@
       <c r="AO43" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP43" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
@@ -26226,6 +26326,9 @@
       <c r="AO44" s="21" t="n">
         <v>1.19525333277E11</v>
       </c>
+      <c r="AP44" s="21" t="n">
+        <v>1.8278161285E10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
@@ -26348,6 +26451,9 @@
       <c r="AO45" s="21" t="n">
         <v>-3.4056833722E10</v>
       </c>
+      <c r="AP45" s="21" t="n">
+        <v>-1.3768781235E10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
@@ -26470,6 +26576,9 @@
       <c r="AO46" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP46" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
@@ -26592,6 +26701,9 @@
       <c r="AO47" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP47" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
@@ -26714,6 +26826,9 @@
       <c r="AO48" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP48" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
@@ -26836,6 +26951,9 @@
       <c r="AO49" s="21" t="n">
         <v>1.7865024315E10</v>
       </c>
+      <c r="AP49" s="21" t="n">
+        <v>-1.3163668914E10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
@@ -26958,6 +27076,9 @@
       <c r="AO50" s="21" t="n">
         <v>4.58359852E8</v>
       </c>
+      <c r="AP50" s="21" t="n">
+        <v>1.8323384167E10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
@@ -27080,6 +27201,9 @@
       <c r="AO51" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AP51" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
@@ -27201,6 +27325,9 @@
       </c>
       <c r="AO52" s="21" t="n">
         <v>1.8323384167E10</v>
+      </c>
+      <c r="AP52" s="21" t="n">
+        <v>5.159715253E9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -27241,7 +27368,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AO10"/>
+    <mergeCell ref="K10:AP10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2404128C-51EF-8E44-9BE0-4A8D207DD5D8}"/>

--- a/data/CMS.xlsx
+++ b/data/CMS.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>CMS</t>

--- a/data/CMS.xlsx
+++ b/data/CMS.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>CMS</t>

--- a/data/CMS.xlsx
+++ b/data/CMS.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>CMS</t>
